--- a/Datasets/Clean Datasets/Food and non-alcoholic beverages, Australia, quarterly and annual movement (%).xlsx
+++ b/Datasets/Clean Datasets/Food and non-alcoholic beverages, Australia, quarterly and annual movement (%).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A238F194-59BB-F243-9799-4679ADCDCBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{A238F194-59BB-F243-9799-4679ADCDCBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D3A51BC-961C-4920-86B9-BB39FB740987}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1120" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Food and non-alcoholic beverages, Australia, quarterly and annual movement (%)</t>
-  </si>
-  <si>
-    <t/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Change from previous quarter (%)</t>
   </si>
@@ -54,6 +48,9 @@
   </si>
   <si>
     <t>Source: Australian Bureau of Statistics, Consumer Price Index, Australia June Quarter 2023</t>
+  </si>
+  <si>
+    <t>Category</t>
   </si>
 </sst>
 </file>
@@ -447,124 +444,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
         <v>1.6</v>
       </c>
-      <c r="C3" s="2">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2.9</v>
-      </c>
-      <c r="C4" s="2">
-        <v>11.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="C5" s="2">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="C6" s="2">
-        <v>15.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C7" s="2">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C8" s="2">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C8" s="2">
-        <v>11.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C9" s="2">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1.7</v>
-      </c>
-      <c r="C10" s="2">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
